--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Flexure Reinforcement Calcualtion/Flexure_Calcualtion_Canillever Reatining Wall.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Flexure Reinforcement Calcualtion/Flexure_Calcualtion_Canillever Reatining Wall.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\Narail\2021_22\Bridges\Kalishankar Pur Khal Footoverbridge\Flexure Reinforcement Calcualtion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -91,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,10 +149,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -155,6 +169,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +290,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,82 +466,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="22" max="22" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -552,19 +585,19 @@
         <v>252</v>
       </c>
       <c r="L2">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M2">
-        <v>0.3458000000000001</v>
-      </c>
-      <c r="N2">
+        <v>0.34580000000000011</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q2">
         <v>0.53</v>
@@ -573,22 +606,22 @@
         <v>7</v>
       </c>
       <c r="S2">
-        <v>0.06493281830337246</v>
-      </c>
-      <c r="T2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2">
-        <v>0.1320461854384466</v>
-      </c>
-      <c r="V2">
-        <v>32.08557401294787</v>
+        <v>6.4932818303372455E-2</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.13204618543844659</v>
+      </c>
+      <c r="V2" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -623,19 +656,19 @@
         <v>252</v>
       </c>
       <c r="L3">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M3">
-        <v>2.3275</v>
-      </c>
-      <c r="N3">
+        <v>2.3275000000000001</v>
+      </c>
+      <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q3">
         <v>0.53</v>
@@ -644,22 +677,22 @@
         <v>7</v>
       </c>
       <c r="S3">
-        <v>0.06493281830337246</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3">
-        <v>0.9148297814689766</v>
-      </c>
-      <c r="V3">
-        <v>32.08557401294787</v>
+        <v>6.4932818303372455E-2</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.91482978146897664</v>
+      </c>
+      <c r="V3" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -694,19 +727,19 @@
         <v>252</v>
       </c>
       <c r="L4">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M4">
-        <v>6.2244</v>
-      </c>
-      <c r="N4">
+        <v>6.2244000000000002</v>
+      </c>
+      <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>0.1</v>
       </c>
       <c r="P4">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q4">
         <v>0.53</v>
@@ -715,22 +748,22 @@
         <v>7</v>
       </c>
       <c r="S4">
-        <v>0.06493281830337246</v>
-      </c>
-      <c r="T4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4">
-        <v>2.485575255311936</v>
-      </c>
-      <c r="V4">
-        <v>32.08557401294787</v>
+        <v>6.4932818303372455E-2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2.4855752553119359</v>
+      </c>
+      <c r="V4" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -765,19 +798,19 @@
         <v>252</v>
       </c>
       <c r="L5">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M5">
-        <v>12.768</v>
-      </c>
-      <c r="N5">
+        <v>12.768000000000001</v>
+      </c>
+      <c r="N5" s="2">
         <v>0.1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>0.1</v>
       </c>
       <c r="P5">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q5">
         <v>0.53</v>
@@ -786,22 +819,22 @@
         <v>7</v>
       </c>
       <c r="S5">
-        <v>0.06493281830337246</v>
-      </c>
-      <c r="T5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5">
+        <v>6.4932818303372455E-2</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="2">
         <v>5.152390372990368</v>
       </c>
-      <c r="V5">
-        <v>32.08557401294787</v>
+      <c r="V5" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -836,19 +869,19 @@
         <v>252</v>
       </c>
       <c r="L6">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M6">
         <v>22.61</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>0.1</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>0.2</v>
       </c>
       <c r="P6">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q6">
         <v>0.53</v>
@@ -857,22 +890,22 @@
         <v>7</v>
       </c>
       <c r="S6">
-        <v>0.06493281830337246</v>
-      </c>
-      <c r="T6" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6">
-        <v>9.208711102145264</v>
-      </c>
-      <c r="V6">
-        <v>32.08557401294787</v>
+        <v>6.4932818303372455E-2</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="2">
+        <v>9.2087111021452639</v>
+      </c>
+      <c r="V6" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -907,19 +940,19 @@
         <v>252</v>
       </c>
       <c r="L7">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M7">
-        <v>36.309</v>
-      </c>
-      <c r="N7">
+        <v>36.308999999999997</v>
+      </c>
+      <c r="N7" s="2">
         <v>0.2</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>0.3</v>
       </c>
       <c r="P7">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q7">
         <v>0.53</v>
@@ -928,22 +961,22 @@
         <v>7</v>
       </c>
       <c r="S7">
-        <v>0.06493281830337246</v>
-      </c>
-      <c r="T7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7">
-        <v>14.91345153187162</v>
-      </c>
-      <c r="V7">
-        <v>32.08557401294787</v>
+        <v>6.4932818303372455E-2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="2">
+        <v>14.913451531871621</v>
+      </c>
+      <c r="V7" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -978,19 +1011,19 @@
         <v>252</v>
       </c>
       <c r="L8">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M8">
-        <v>71.37379542203986</v>
-      </c>
-      <c r="N8">
+        <v>71.373795422039862</v>
+      </c>
+      <c r="N8" s="2">
         <v>0.5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>0.6</v>
       </c>
       <c r="P8">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q8">
         <v>0.62</v>
@@ -999,22 +1032,22 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>0.05507160274320547</v>
-      </c>
-      <c r="T8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8">
-        <v>27.80965098563769</v>
-      </c>
-      <c r="V8">
-        <v>32.08557401294787</v>
+        <v>5.5071602743205467E-2</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="2">
+        <v>27.809650985637688</v>
+      </c>
+      <c r="V8" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1034,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1049,19 +1082,19 @@
         <v>252</v>
       </c>
       <c r="L9">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M9">
-        <v>71.37379542203986</v>
-      </c>
-      <c r="N9">
+        <v>71.373795422039862</v>
+      </c>
+      <c r="N9" s="2">
         <v>0.7</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>0.6</v>
       </c>
       <c r="P9">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q9">
         <v>0.74</v>
@@ -1070,22 +1103,22 @@
         <v>5</v>
       </c>
       <c r="S9">
-        <v>0.04565458608214513</v>
-      </c>
-      <c r="T9" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9">
-        <v>32.3360552314948</v>
-      </c>
-      <c r="V9">
-        <v>32.08557401294787</v>
+        <v>4.5654586082145128E-2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="2">
+        <v>32.336055231494797</v>
+      </c>
+      <c r="V9" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1105,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1120,19 +1153,19 @@
         <v>252</v>
       </c>
       <c r="L10">
-        <v>71.37379542203986</v>
+        <v>71.373795422039862</v>
       </c>
       <c r="M10">
-        <v>71.37379542203986</v>
-      </c>
-      <c r="N10">
+        <v>71.373795422039862</v>
+      </c>
+      <c r="N10" s="2">
         <v>0.8</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>0.6</v>
       </c>
       <c r="P10">
-        <v>0.481764705882353</v>
+        <v>0.48176470588235298</v>
       </c>
       <c r="Q10">
         <v>0.93</v>
@@ -1141,16 +1174,16 @@
         <v>4</v>
       </c>
       <c r="S10">
-        <v>0.03571440182880365</v>
-      </c>
-      <c r="T10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10">
-        <v>32.3082417243161</v>
-      </c>
-      <c r="V10">
-        <v>32.08557401294787</v>
+        <v>3.571440182880365E-2</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="2">
+        <v>32.308241724316098</v>
+      </c>
+      <c r="V10" s="2">
+        <v>32.085574012947873</v>
       </c>
       <c r="W10" t="s">
         <v>23</v>
@@ -1158,5 +1191,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>